--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_04_end.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_04_end.xlsx
@@ -608,15 +608,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria Punk B"]  S-She’s strong...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Uda"]  You’re not half bad, I’ll give you that!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aruna"]  Don’t get cocky, Eunectes!
+    <t xml:space="preserve">[name="Archosauria Punk B"]  S-She's strong...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Uda"]  You're not half bad, I'll give you that!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aruna"]  Don't get cocky, Eunectes!
 </t>
   </si>
   <si>
@@ -628,7 +628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Mm, I knew it! Zumama’s so tough!
+    <t xml:space="preserve">[name="Tomimi"]  Mm, I knew it! Zumama's so tough!
 </t>
   </si>
   <si>
@@ -640,7 +640,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="It sounds like you know her pretty well.;......;She’s so cool...",values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="It sounds like you know her pretty well.;......;She's so cool...",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -652,11 +652,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Doctor. I bet you don’t see people this strong on the outside!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  But Gavial’s even stronger than her!
+    <t xml:space="preserve">[name="Tomimi"]  Doctor. I bet you don't see people this strong on the outside!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  But Gavial's even stronger than her!
 </t>
   </si>
   <si>
@@ -664,7 +664,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  But Gavial’s way cooler!
+    <t xml:space="preserve">[name="Tomimi"]  But Gavial's way cooler!
 </t>
   </si>
   <si>
@@ -672,7 +672,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Huh? Where’s Gavial?
+    <t xml:space="preserve">[name="Tomimi"]  Huh? Where's Gavial?
 </t>
   </si>
   <si>
@@ -680,7 +680,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria B"]  I saw her on my way here! Isn’t that—
+    <t xml:space="preserve">[name="Archosauria B"]  I saw her on my way here! Isn't that—
 </t>
   </si>
   <si>
@@ -700,7 +700,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  It’s been a while, Zumama!
+    <t xml:space="preserve">[name="Gavial"]  It's been a while, Zumama!
 </t>
   </si>
   <si>
@@ -712,7 +712,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  That’s right, Tomimi asked me to come back.
+    <t xml:space="preserve">[name="Gavial"]  That's right, Tomimi asked me to come back.
 </t>
   </si>
   <si>
@@ -724,7 +724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  I’ve been studying it for a long time.
+    <t xml:space="preserve">[name="Eunectes"]  I've been studying it for a long time.
 </t>
   </si>
   <si>
@@ -744,7 +744,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I didn’t expect to see you get this badass, though. How am I supposed to hold myself back from fighting you?
+    <t xml:space="preserve">[name="Gavial"]  I didn't expect to see you get this badass, though. How am I supposed to hold myself back from fighting you?
 </t>
   </si>
   <si>
@@ -756,15 +756,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Hehe, I’m a pretty famous doctor out there!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  That’s amazing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  What about you? You didn’t show up last time because you were tinkering with something, right? You done with that yet?
+    <t xml:space="preserve">[name="Gavial"]  Hehe, I'm a pretty famous doctor out there!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  That's amazing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  What about you? You didn't show up last time because you were tinkering with something, right? You done with that yet?
 </t>
   </si>
   <si>
@@ -772,23 +772,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  You’ll get to see it very soon.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Ugh... didn’t Gavial say she wasn’t going to fight her...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="It’s Gavial. Are you surprised?;......;That’s the Gavial we know and love.",values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Hm? N-Not at all! I-It’s just...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Even the Doctor’s taken with her...
+    <t xml:space="preserve">[name="Eunectes"]  You'll get to see it very soon.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Ugh... didn't Gavial say she wasn't going to fight her...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="It's Gavial. Are you surprised?;......;That's the Gavial we know and love.",values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Hm? N-Not at all! I-It's just...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Even the Doctor's taken with her...
 </t>
   </si>
   <si>
@@ -796,15 +796,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Oh... it’s true.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  You’re as strong as I remember.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Heh, you ain’t half bad either!
+    <t xml:space="preserve">[name="Tomimi"]  Oh... it's true.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  You're as strong as I remember.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Heh, you ain't half bad either!
 </t>
   </si>
   <si>
@@ -816,11 +816,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  You can do all sorts of things with your fists, so you don’t ever think of using anything else.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  That’s what’s holding you back, and it’s what’s holding all of us back.
+    <t xml:space="preserve">[name="Eunectes"]  You can do all sorts of things with your fists, so you don't ever think of using anything else.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  That's what's holding you back, and it's what's holding all of us back.
 </t>
   </si>
   <si>
@@ -828,7 +828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  What I’m trying to say is it’s time for change.
+    <t xml:space="preserve">[name="Eunectes"]  What I'm trying to say is it's time for change.
 </t>
   </si>
   <si>
@@ -840,11 +840,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  You’re strong, Gavial. There’s no doubt about that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  I wasn’t going to use this until after I took the throne.
+    <t xml:space="preserve">[name="Eunectes"]  You're strong, Gavial. There's no doubt about that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  I wasn't going to use this until after I took the throne.
 </t>
   </si>
   <si>
@@ -852,7 +852,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  It doesn’t matter. The end result will still be the same.
+    <t xml:space="preserve">[name="Eunectes"]  It doesn't matter. The end result will still be the same.
 </t>
   </si>
   <si>
@@ -860,7 +860,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I’ve got no idea what you’re talking about, but I’m not going down that easy!
+    <t xml:space="preserve">[name="Gavial"]  I've got no idea what you're talking about, but I'm not going down that easy!
 </t>
   </si>
   <si>
@@ -872,7 +872,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  What’s... that?!
+    <t xml:space="preserve">[name="Gavial"]  What's... that?!
 </t>
   </si>
   <si>
@@ -880,15 +880,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  But using it against you isn’t what I’m trying to accomplish here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  We won’t have a future if we always rely on our fists.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  From here on out, we’re in the age of machines.
+    <t xml:space="preserve">[name="Eunectes"]  But using it against you isn't what I'm trying to accomplish here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  We won't have a future if we always rely on our fists.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  From here on out, we're in the age of machines.
 </t>
   </si>
   <si>
